--- a/assets/directory-2019-05-23.xlsx
+++ b/assets/directory-2019-05-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pschloss/Documents/websites/polypay.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B812B8-4552-3F48-BDA5-34B891D1A029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56108C84-6E2C-1144-AF17-950EE0F28046}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="460" windowWidth="29120" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,9 +1558,6 @@
     <t>Hanssen</t>
   </si>
   <si>
-    <t>James &amp; Rhondi</t>
-  </si>
-  <si>
     <t>Hanssen Polypays</t>
   </si>
   <si>
@@ -2752,6 +2749,9 @@
   </si>
   <si>
     <t>12211 W Rt 973</t>
+  </si>
+  <si>
+    <t>James &amp; Rondi</t>
   </si>
 </sst>
 </file>
@@ -4772,8 +4772,8 @@
   </sheetPr>
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4920,22 +4920,22 @@
         <v>2018</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>529</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>530</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>171</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -4947,26 +4947,26 @@
         <v>2019</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>810</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>811</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>813</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>295</v>
       </c>
       <c r="J5" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>814</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>815</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -5031,10 +5031,10 @@
         <v>489</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J7" s="55">
         <v>56262</v>
@@ -5048,28 +5048,28 @@
         <v>2019</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>422</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>242</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="N8" s="30" t="s">
         <v>744</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5162,31 +5162,31 @@
         <v>2019</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>762</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="N11" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -5197,28 +5197,28 @@
         <v>2018</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>284</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="N12" s="30" t="s">
         <v>573</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -5229,31 +5229,31 @@
         <v>2019</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="N13" s="30" t="s">
         <v>704</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -5264,28 +5264,28 @@
         <v>2018</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="N14" s="30" t="s">
         <v>563</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -5331,28 +5331,28 @@
         <v>2019</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="N16" s="30" t="s">
         <v>675</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -5363,13 +5363,13 @@
         <v>2018</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>294</v>
@@ -5405,7 +5405,7 @@
         <v>149</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>150</v>
@@ -5471,25 +5471,25 @@
         <v>2018</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>230</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -5535,16 +5535,16 @@
         <v>2019</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>176</v>
@@ -5553,10 +5553,10 @@
         <v>171</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
         <v>182</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>183</v>
@@ -5642,28 +5642,28 @@
         <v>2018</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="N25" s="30" t="s">
         <v>682</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -5744,16 +5744,16 @@
         <v>2018</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>87</v>
@@ -5762,13 +5762,13 @@
         <v>308</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="N28" s="30" t="s">
         <v>756</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -5782,28 +5782,28 @@
         <v>497</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="G29" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>284</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="K29" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>502</v>
-      </c>
       <c r="N29" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -5923,28 +5923,28 @@
         <v>2019</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>242</v>
       </c>
       <c r="J33" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="N33" s="30" t="s">
         <v>665</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -5956,28 +5956,28 @@
         <v>2019</v>
       </c>
       <c r="D34" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="G34" s="20" t="s">
         <v>837</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="H34" s="20" t="s">
         <v>838</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>839</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>50</v>
       </c>
       <c r="J34" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>840</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>841</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -5992,10 +5992,10 @@
         <v>2019</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>231</v>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -6140,22 +6140,22 @@
         <v>2019</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>749</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -6206,25 +6206,25 @@
         <v>2019</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>798</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J41" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="N41" s="30"/>
     </row>
@@ -6236,22 +6236,22 @@
         <v>2019</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>738</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -6262,31 +6262,31 @@
         <v>2019</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>774</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J43" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="N43" s="30" t="s">
         <v>776</v>
-      </c>
-      <c r="N43" s="30" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -6297,31 +6297,31 @@
         <v>2019</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J44" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="N44" s="30" t="s">
         <v>525</v>
-      </c>
-      <c r="N44" s="30" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -6394,7 +6394,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
       <c r="N46" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -6405,28 +6405,28 @@
         <v>2019</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="N47" s="30" t="s">
         <v>538</v>
-      </c>
-      <c r="N47" s="30" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -6438,29 +6438,29 @@
         <v>2019</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>819</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="43" t="s">
+        <v>819</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="M48" s="50"/>
       <c r="N48" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O48" s="41"/>
     </row>
@@ -6472,32 +6472,32 @@
         <v>2019</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J49" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -6553,7 +6553,7 @@
         <v>189</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>190</v>
@@ -6614,31 +6614,31 @@
         <v>2018</v>
       </c>
       <c r="D53" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>627</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>628</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>629</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>630</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>171</v>
       </c>
       <c r="J53" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="K53" s="24" t="s">
         <v>631</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>632</v>
       </c>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
       <c r="N53" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -6649,31 +6649,31 @@
         <v>2019</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="G54" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="H54" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J54" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="K54" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="K54" s="25" t="s">
+      <c r="L54" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -6694,7 +6694,7 @@
         <v>135</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>136</v>
@@ -6795,13 +6795,13 @@
         <v>397</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>401</v>
@@ -6813,7 +6813,7 @@
         <v>402</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -6875,7 +6875,7 @@
         <v>280</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>281</v>
@@ -6890,7 +6890,7 @@
         <v>283</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -6901,13 +6901,13 @@
         <v>2018</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>87</v>
@@ -6916,7 +6916,7 @@
         <v>80</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>88</v>
@@ -6957,7 +6957,7 @@
         <v>476</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -7040,31 +7040,31 @@
         <v>2019</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="K65" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="N65" s="30" t="s">
         <v>691</v>
-      </c>
-      <c r="N65" s="30" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -7116,7 +7116,7 @@
         <v>240</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>241</v>
@@ -7142,31 +7142,31 @@
         <v>2018</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J68" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="N68" s="30" t="s">
         <v>592</v>
-      </c>
-      <c r="N68" s="30" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -7212,28 +7212,28 @@
         <v>340</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="J70" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="K70" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="N70" s="30" t="s">
         <v>785</v>
-      </c>
-      <c r="N70" s="30" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -7296,16 +7296,16 @@
         <v>301</v>
       </c>
       <c r="G72" s="44" t="s">
+        <v>830</v>
+      </c>
+      <c r="H72" s="20" t="s">
         <v>831</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>832</v>
       </c>
       <c r="I72" s="20" t="s">
         <v>302</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K72" s="25" t="s">
         <v>303</v>
@@ -7334,7 +7334,7 @@
         <v>196</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>197</v>
@@ -7401,28 +7401,28 @@
         <v>2018</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J75" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="N75" s="30" t="s">
         <v>658</v>
-      </c>
-      <c r="N75" s="30" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
       <c r="L76" s="48"/>
       <c r="M76" s="48"/>
       <c r="N76" s="51" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O76" s="46"/>
     </row>
@@ -7472,28 +7472,28 @@
         <v>2018</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G77" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J77" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="N77" s="30" t="s">
         <v>726</v>
-      </c>
-      <c r="N77" s="30" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -7542,34 +7542,34 @@
         <v>2018</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J79" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>580</v>
-      </c>
       <c r="N79" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="O79" s="30" t="s">
         <v>720</v>
-      </c>
-      <c r="O79" s="30" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -7580,28 +7580,28 @@
         <v>2019</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>730</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>731</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>238</v>
       </c>
       <c r="J80" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="N80" s="30" t="s">
         <v>733</v>
-      </c>
-      <c r="N80" s="30" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -7612,34 +7612,34 @@
         <v>2019</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J81" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="N81" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="N81" s="30" t="s">
-        <v>557</v>
-      </c>
       <c r="O81" s="54" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -7688,22 +7688,22 @@
         <v>2019</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -7738,7 +7738,7 @@
         <v>66</v>
       </c>
       <c r="N84" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -7749,31 +7749,31 @@
         <v>2018</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J85" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -7784,28 +7784,28 @@
         <v>2019</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>295</v>
       </c>
       <c r="J86" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="N86" s="30" t="s">
         <v>806</v>
-      </c>
-      <c r="N86" s="30" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -7819,31 +7819,31 @@
         <v>404</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>622</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J87" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="L87" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="L87" s="5" t="s">
+      <c r="N87" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>626</v>
       </c>
       <c r="O87" s="37"/>
     </row>
@@ -7858,25 +7858,25 @@
         <v>404</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J88" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>544</v>
-      </c>
       <c r="N88" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -7887,31 +7887,31 @@
         <v>2019</v>
       </c>
       <c r="D89" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J89" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="N89" s="30" t="s">
         <v>600</v>
-      </c>
-      <c r="N89" s="30" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -7932,7 +7932,7 @@
         <v>141</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H90" s="24" t="s">
         <v>142</v>
@@ -8001,19 +8001,19 @@
         <v>2019</v>
       </c>
       <c r="D92" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="E92" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="F92" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="G92" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="H92" s="24" t="s">
         <v>637</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>638</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>122</v>
@@ -8022,12 +8022,12 @@
         <v>46167</v>
       </c>
       <c r="K92" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
       <c r="N92" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -8038,31 +8038,31 @@
         <v>2019</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>791</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J93" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="N93" s="30" t="s">
         <v>793</v>
-      </c>
-      <c r="N93" s="30" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -8165,10 +8165,10 @@
         <v>496</v>
       </c>
       <c r="N96" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="O96" s="30" t="s">
         <v>602</v>
-      </c>
-      <c r="O96" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -8179,31 +8179,31 @@
         <v>2018</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="H97" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>302</v>
       </c>
       <c r="J97" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="N97" s="30" t="s">
         <v>617</v>
-      </c>
-      <c r="N97" s="30" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -8214,25 +8214,25 @@
         <v>2019</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -8317,23 +8317,23 @@
         <v>2018</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="G101" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="H101" s="24" t="s">
         <v>642</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>643</v>
       </c>
       <c r="I101" s="24" t="s">
         <v>238</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K101" s="24"/>
       <c r="L101" s="36"/>
@@ -8519,31 +8519,31 @@
         <v>2019</v>
       </c>
       <c r="D107" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J107" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O107" s="4"/>
     </row>
@@ -8555,13 +8555,13 @@
         <v>2018</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>294</v>
